--- a/WSC/Test Report/Procurement & Inventory/WSC Procurement & Inventory_Items & Pricing.xlsx
+++ b/WSC/Test Report/Procurement & Inventory/WSC Procurement & Inventory_Items & Pricing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="378">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Abhishek Anand</t>
+  </si>
+  <si>
     <t>S#</t>
   </si>
   <si>
@@ -50,6 +56,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>url</t>
     </r>
     <r>
@@ -65,6 +79,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -101,6 +123,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -2006,7 +2036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2028,52 +2058,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2613,10 +2640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2661,8 +2688,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2670,16 +2701,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2687,337 +2718,326 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="E11" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>26</v>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="14">
-        <v>3</v>
+      <c r="A14" s="11">
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>26</v>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A15" s="14">
-        <v>4</v>
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="11">
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>26</v>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="14">
-        <v>5</v>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A16" s="11">
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>26</v>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="14">
-        <v>6</v>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="11">
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>26</v>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="14">
-        <v>7</v>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="11">
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>26</v>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="14">
-        <v>8</v>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A19" s="11">
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>26</v>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A20" s="14">
-        <v>9</v>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="11">
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>26</v>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A21" s="14">
-        <v>10</v>
+    <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A21" s="11">
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>26</v>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="14">
-        <v>11</v>
+      <c r="A22" s="11">
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>26</v>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="14">
-        <v>12</v>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A23" s="11">
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>26</v>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A24" s="14">
-        <v>13</v>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A24" s="11">
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>26</v>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A25" s="14">
-        <v>14</v>
+    <row r="25" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A25" s="11">
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>62</v>
@@ -3026,116 +3046,116 @@
         <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="14">
-        <v>15</v>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A26" s="11">
+        <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>26</v>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A27" s="14">
-        <v>16</v>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A27" s="11">
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>26</v>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="14">
+    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A28" s="11">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="11">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
-      <c r="A29" s="14">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>74</v>
+      <c r="E29" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A30" s="14">
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="11">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A31" s="11">
         <v>19</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A31" s="14">
-        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>78</v>
@@ -3144,50 +3164,48 @@
         <v>79</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A32" s="14">
-        <v>21</v>
+      <c r="A32" s="11">
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>74</v>
+      <c r="E32" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>3</v>
-      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="14">
-        <v>22</v>
+      <c r="A33" s="11">
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>74</v>
+      <c r="E33" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3">
@@ -3195,103 +3213,120 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A34" s="14">
-        <v>23</v>
+      <c r="A34" s="11">
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A35" s="11">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="17"/>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="17"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:1">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="21" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="E38" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="F38" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="16">
+      <c r="C39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="12">
         <v>59</v>
       </c>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="21" t="s">
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="16">
+      <c r="D40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="12">
         <v>59</v>
       </c>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:1">
-      <c r="A40" s="17"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:1">
-      <c r="A41" s="17"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:1">
-      <c r="A42" s="17"/>
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:1">
+      <c r="A43" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3301,10 +3336,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3324,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3350,8 +3385,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3359,16 +3398,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:6">
@@ -3376,380 +3415,367 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="14">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>26</v>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="14">
-        <v>3</v>
+      <c r="A14" s="11">
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>26</v>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A15" s="14">
-        <v>4</v>
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="11">
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="14">
-        <v>5</v>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A16" s="11">
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>26</v>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A17" s="14">
-        <v>6</v>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="11">
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="14">
-        <v>7</v>
+    <row r="18" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A18" s="11">
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>26</v>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A19" s="14">
-        <v>8</v>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="11">
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>26</v>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A20" s="14">
-        <v>9</v>
+    <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A20" s="11">
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>26</v>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A21" s="14">
-        <v>10</v>
+      <c r="A21" s="11">
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>26</v>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A22" s="14">
-        <v>11</v>
+    <row r="22" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A22" s="11">
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>26</v>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A23" s="14">
-        <v>12</v>
+    <row r="23" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A23" s="11">
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>26</v>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A24" s="14">
-        <v>13</v>
+    <row r="24" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A24" s="11">
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>26</v>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="14">
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A25" s="11">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="11">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="14">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>74</v>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A27" s="14">
-        <v>16</v>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A27" s="11">
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>140</v>
@@ -3758,190 +3784,192 @@
         <v>141</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A28" s="11">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A28" s="14">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>26</v>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A29" s="14">
-        <v>18</v>
+    <row r="29" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A29" s="11">
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>26</v>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A30" s="14">
-        <v>19</v>
+    <row r="30" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A30" s="11">
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>26</v>
+      <c r="E30" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A31" s="14">
-        <v>20</v>
+    <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A31" s="11">
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>26</v>
+      <c r="E31" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A32" s="14">
-        <v>21</v>
+      <c r="A32" s="11">
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>26</v>
+      <c r="E32" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A33" s="14">
+      <c r="A33" s="11">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A34" s="11">
         <v>22</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3">
+      <c r="C34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A34" s="14">
+    <row r="35" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A35" s="11">
         <v>23</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A35" s="14">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>26</v>
+      <c r="E35" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A36" s="14">
-        <v>25</v>
+      <c r="A36" s="11">
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>26</v>
+      <c r="E36" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A37" s="14">
-        <v>26</v>
+      <c r="A37" s="11">
+        <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>169</v>
@@ -3950,600 +3978,598 @@
         <v>170</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A38" s="11">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A38" s="14">
-        <v>27</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>74</v>
+      <c r="E38" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A39" s="11">
+        <v>27</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
-      <c r="A39" s="14">
-        <v>28</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="3" t="s">
+    <row r="40" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+      <c r="A40" s="11">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A40" s="14">
+      <c r="D40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A41" s="11">
         <v>29</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A41" s="14">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>26</v>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A42" s="14">
-        <v>31</v>
+    <row r="42" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A42" s="11">
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>26</v>
+      <c r="E42" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A43" s="14">
+    <row r="43" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A43" s="11">
+        <v>31</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A44" s="11">
         <v>32</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3">
+      <c r="C44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A44" s="14">
+    <row r="45" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A45" s="11">
         <v>33</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A45" s="14">
+      <c r="C45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A46" s="11">
         <v>34</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
+      <c r="C46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A46" s="14">
+    <row r="47" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A47" s="11">
         <v>35</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A47" s="14">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>26</v>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A48" s="14">
-        <v>37</v>
+    <row r="48" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A48" s="11">
+        <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>26</v>
+      <c r="E48" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A49" s="14">
-        <v>38</v>
+      <c r="A49" s="11">
+        <v>37</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>26</v>
+      <c r="E49" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A50" s="14">
-        <v>39</v>
+      <c r="A50" s="11">
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>26</v>
+      <c r="E50" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A51" s="14">
-        <v>40</v>
+    <row r="51" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A51" s="11">
+        <v>39</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>26</v>
+      <c r="E51" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A52" s="14">
-        <v>41</v>
+    <row r="52" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A52" s="11">
+        <v>40</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>26</v>
+      <c r="E52" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A53" s="14">
-        <v>42</v>
+    <row r="53" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A53" s="11">
+        <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>26</v>
+      <c r="E53" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A54" s="14">
+    <row r="54" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A54" s="11">
+        <v>42</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A55" s="11">
         <v>43</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A55" s="14">
-        <v>44</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>74</v>
+      <c r="E55" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A56" s="11">
+        <v>44</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A56" s="14">
+    <row r="57" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A57" s="11">
         <v>45</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A57" s="14">
-        <v>46</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>26</v>
+      <c r="E57" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A58" s="14">
-        <v>47</v>
+    <row r="58" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A58" s="11">
+        <v>46</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>26</v>
+      <c r="E58" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A59" s="14">
+      <c r="A59" s="11">
+        <v>47</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A60" s="11">
         <v>48</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A60" s="14">
-        <v>49</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>74</v>
+      <c r="E60" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A61" s="11">
+        <v>49</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A61" s="14">
+    <row r="62" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A62" s="11">
         <v>50</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A62" s="14">
-        <v>51</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>26</v>
+      <c r="E62" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A63" s="14">
-        <v>52</v>
+    <row r="63" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A63" s="11">
+        <v>51</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>26</v>
+      <c r="E63" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A64" s="14">
-        <v>53</v>
+    <row r="64" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A64" s="11">
+        <v>52</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>26</v>
+      <c r="E64" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A65" s="14">
-        <v>54</v>
+    <row r="65" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A65" s="11">
+        <v>53</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>26</v>
+      <c r="E65" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A66" s="14">
-        <v>55</v>
+    <row r="66" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A66" s="11">
+        <v>54</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>74</v>
+      <c r="E66" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="3">
-        <v>2</v>
-      </c>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A67" s="14">
-        <v>56</v>
+      <c r="A67" s="11">
+        <v>55</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E67" s="15" t="s">
-        <v>74</v>
+      <c r="E67" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
@@ -4551,233 +4577,250 @@
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A68" s="14">
-        <v>57</v>
+      <c r="A68" s="11">
+        <v>56</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A69" s="11">
+        <v>57</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E68" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A69" s="14">
-        <v>58</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>26</v>
+      <c r="E69" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A70" s="14">
-        <v>59</v>
+    <row r="70" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A70" s="11">
+        <v>58</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>26</v>
+      <c r="E70" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A71" s="14">
-        <v>60</v>
+    <row r="71" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A71" s="11">
+        <v>59</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>26</v>
+      <c r="E71" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A72" s="14">
-        <v>61</v>
+    <row r="72" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A72" s="11">
+        <v>60</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="15" t="s">
-        <v>26</v>
+      <c r="E72" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A73" s="14">
-        <v>62</v>
+    <row r="73" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A73" s="11">
+        <v>61</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>74</v>
+      <c r="E73" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A74" s="14">
-        <v>63</v>
+    <row r="74" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A74" s="11">
+        <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>26</v>
+      <c r="E74" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A75" s="14">
-        <v>64</v>
+    <row r="75" s="1" customFormat="1" ht="120" spans="1:7">
+      <c r="A75" s="11">
+        <v>63</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>26</v>
+      <c r="E75" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:1">
-      <c r="A76" s="17"/>
+    <row r="76" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A76" s="11">
+        <v>64</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:1">
-      <c r="A77" s="17"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:6">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="20" t="s">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:1">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:6">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A79" s="17"/>
-      <c r="B79" s="21" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="E79" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="16">
+      <c r="F79" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A80" s="13"/>
+      <c r="B80" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A80" s="17"/>
-      <c r="B80" s="21" t="s">
+    <row r="81" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A81" s="13"/>
+      <c r="B81" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="16">
+      <c r="D81" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:1">
-      <c r="A81" s="17"/>
-    </row>
     <row r="82" s="1" customFormat="1" spans="1:1">
-      <c r="A82" s="17"/>
+      <c r="A82" s="13"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:1">
-      <c r="A83" s="17"/>
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:1">
+      <c r="A84" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4787,10 +4830,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4809,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -4835,8 +4878,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4844,16 +4891,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30" spans="1:6">
@@ -4861,569 +4908,573 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="D11" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>26</v>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="14">
-        <v>3</v>
+      <c r="A14" s="11">
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>26</v>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A15" s="14">
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A16" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="14">
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A17" s="14">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A18" s="14">
-        <v>7</v>
+    <row r="18" s="1" customFormat="1" ht="120" spans="1:7">
+      <c r="A18" s="11">
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>26</v>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="14">
+    <row r="19" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A19" s="11">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="11">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="C20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A20" s="14">
+    <row r="21" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A21" s="11">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A21" s="14">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>26</v>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A22" s="14">
-        <v>11</v>
+    <row r="22" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A22" s="11">
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>26</v>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A23" s="14">
-        <v>12</v>
+    <row r="23" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A23" s="11">
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>26</v>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A24" s="14">
+      <c r="A24" s="11">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A25" s="11">
         <v>13</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A25" s="14">
+      <c r="C25" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A26" s="11">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A26" s="14">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>26</v>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="14">
-        <v>16</v>
+    <row r="27" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A27" s="11">
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>26</v>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A28" s="14">
-        <v>17</v>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A28" s="11">
+        <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>26</v>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A29" s="14">
-        <v>18</v>
+      <c r="A29" s="11">
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>26</v>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="14">
-        <v>19</v>
+    <row r="30" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A30" s="11">
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A31" s="11">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
+      <c r="C31" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A31" s="14">
+    <row r="32" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A32" s="11">
         <v>20</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A32" s="14">
-        <v>21</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>343</v>
+        <v>88</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:1">
-      <c r="A33" s="17"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="20" t="s">
+    <row r="33" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A33" s="11">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:1">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="21" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="E35" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="16">
+      <c r="F35" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A36" s="13"/>
+      <c r="B36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21" t="s">
+    <row r="37" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A37" s="13"/>
+      <c r="B37" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="16">
+      <c r="D37" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:1">
-      <c r="A37" s="17"/>
-    </row>
     <row r="38" s="1" customFormat="1" spans="1:1">
-      <c r="A38" s="17"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:1">
-      <c r="A39" s="17"/>
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:1">
+      <c r="A40" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5435,8 +5486,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5455,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5481,8 +5532,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5490,16 +5545,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -5507,44 +5562,44 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>349</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="9"/>
       <c r="F8" s="3"/>
     </row>
@@ -5557,32 +5612,32 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>349</v>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>350</v>
+      <c r="A11" s="11"/>
+      <c r="B11" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5591,153 +5646,153 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>351</v>
+      <c r="B12" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>26</v>
+        <v>355</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>26</v>
+        <v>358</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="14">
+      <c r="A14" s="11">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>26</v>
+        <v>361</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A15" s="14">
+      <c r="A15" s="11">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>26</v>
+        <v>364</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>26</v>
+        <v>367</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>74</v>
+        <v>370</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
@@ -5745,135 +5800,130 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A20" s="14">
+      <c r="A20" s="11">
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>26</v>
+        <v>373</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A21" s="14">
+      <c r="A21" s="11">
         <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>26</v>
+        <v>376</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="14">
+      <c r="A22" s="11">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>21</v>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="A25" s="13"/>
+      <c r="B25" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="D26" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="13"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
